--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1310095.92348071</v>
+        <v>-1312945.345670038</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298.3069606385558</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>46.45345203807881</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>32.36102920472581</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>13.72101765531085</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.04055620987481</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>111.0536487307592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>230.2066354030528</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.6068540061603</v>
+        <v>150.554026234625</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>242.1079455159142</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>308.2207106370324</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>119.6247023497718</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>48.35653834572071</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.17139158339551</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>83.06560892428033</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.79687029689919</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016559</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>77.3950726440258</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>134.7910873020746</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>83.53432244437134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>12.96996784159906</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>69.83388910785385</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784704</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>81.27859867330056</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>212.5626585298421</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>127.1477159870288</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545302</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2650.22641219188</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2650.22641219188</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2650.22641219188</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2396.464626829972</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2065.401739486401</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="X2" t="n">
-        <v>1629.795665841868</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="Y2" t="n">
-        <v>1629.795665841868</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>714.2693704131909</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5045402329973</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.106519274536</v>
+        <v>1645.450628940883</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1276.488112000471</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>918.2224133937209</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>918.2224133937209</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>507.2365086041133</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>493.3131045427043</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>166.1183845787071</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186809</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186809</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2035.589960916695</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.245851250347</v>
+        <v>2035.589960916695</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.106519274536</v>
+        <v>1645.450628940883</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014718</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035062</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649891</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.9956044222747</v>
+        <v>348.746022900668</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>348.746022900668</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750366</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750366</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750366</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750366</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750366</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750366</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1424.560308008045</v>
+        <v>1604.931972463381</v>
       </c>
       <c r="C8" t="n">
-        <v>1055.597791067633</v>
+        <v>1235.969455522969</v>
       </c>
       <c r="D8" t="n">
-        <v>697.3320924608824</v>
+        <v>877.7037569162189</v>
       </c>
       <c r="E8" t="n">
-        <v>311.5438398626382</v>
+        <v>491.9155043179747</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>484.9700035687712</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374778</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1969.579123677698</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2516.740328444775</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2540.934053515052</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2326.134191782764</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2326.134191782764</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>1995.071304439193</v>
       </c>
       <c r="W8" t="n">
-        <v>2188.165398244936</v>
+        <v>1995.071304439193</v>
       </c>
       <c r="X8" t="n">
-        <v>1814.699639983856</v>
+        <v>1995.071304439193</v>
       </c>
       <c r="Y8" t="n">
-        <v>1424.560308008045</v>
+        <v>1604.931972463381</v>
       </c>
     </row>
     <row r="9">
@@ -4869,31 +4869,31 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.847838830048</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>172.6022336772602</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>502.0306379830701</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>982.8924109315594</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1623.437760398664</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>329.0306575971365</v>
+        <v>605.0955332381617</v>
       </c>
       <c r="C10" t="n">
-        <v>329.0306575971365</v>
+        <v>436.1593503102548</v>
       </c>
       <c r="D10" t="n">
-        <v>329.0306575971365</v>
+        <v>436.1593503102548</v>
       </c>
       <c r="E10" t="n">
-        <v>329.0306575971365</v>
+        <v>436.1593503102548</v>
       </c>
       <c r="F10" t="n">
-        <v>208.1976249205994</v>
+        <v>289.2694028123444</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1976249205994</v>
+        <v>120.6625578077278</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972709</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972709</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>557.0202084951538</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>329.0306575971365</v>
+        <v>825.8881123816918</v>
       </c>
       <c r="Y10" t="n">
-        <v>329.0306575971365</v>
+        <v>605.0955332381617</v>
       </c>
     </row>
     <row r="11">
@@ -5027,34 +5027,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949674</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,10 +5285,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5367,7 +5367,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400699</v>
+        <v>800.5007694647168</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812163</v>
+        <v>631.5645865368099</v>
       </c>
       <c r="D16" t="n">
-        <v>344.917417812163</v>
+        <v>481.4479471244741</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>333.534853542081</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235154</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2264.108249235154</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1975.033022579352</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1720.348534373465</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1430.931364336504</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138397</v>
+        <v>1202.941813438487</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703096</v>
+        <v>982.1492342949565</v>
       </c>
     </row>
     <row r="17">
@@ -5501,43 +5501,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>633.992644467967</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>486.0795508855739</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>339.1896033876635</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>171.9935041025435</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>171.9935041025435</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2310.810470143821</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2091.209005166763</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1802.133778510961</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1547.449290305074</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305074</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>718.550723916711</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>549.6145409888042</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888042</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
         <v>549.6145409888042</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1893.082977031346</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1638.398488825459</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.981318788498</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1120.991767890481</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y22" t="n">
-        <v>900.1991887469508</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1473.676097763957</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1559.953817504172</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6838,13 +6838,13 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,25 +6871,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7026,13 +7026,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,25 +7120,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7588,19 +7588,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7637,13 +7637,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111707</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7840,10 +7840,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951775</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>35.04072454780558</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>347.1032070028236</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-1.409443573922598e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-5.37733840122858e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,7 +22556,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.024950536732902</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>337.3700714737432</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>153.8103113276136</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>238.4166256685172</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.6605885985418</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>63.36835372228884</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>73.62417772603206</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.870763674539717</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>46.23519869957002</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6501519448728</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>212.7396875474381</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>63.36835372228704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>148.7507642442409</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>85.96822242532727</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>39.57498479398592</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1255956.781239608</v>
+        <v>1255956.781239609</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154575</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728566</v>
@@ -26323,25 +26323,25 @@
         <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="J2" t="n">
         <v>161429.3199380013</v>
-      </c>
-      <c r="J2" t="n">
-        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728568</v>
@@ -26350,10 +26350,10 @@
         <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481113</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.616417577565699e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127713.0035258957</v>
+        <v>127713.0035258959</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630332</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682564</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682647</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682737</v>
+        <v>5677.536566682724</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682653</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977619</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977617</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977611</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="P4" t="n">
         <v>13668.3958297762</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084683</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665138.2480883923</v>
+        <v>-665498.3311041098</v>
       </c>
       <c r="C6" t="n">
         <v>-128573.1395535862</v>
       </c>
       <c r="D6" t="n">
-        <v>-284376.9456473811</v>
+        <v>-284376.9456473808</v>
       </c>
       <c r="E6" t="n">
-        <v>-716423.437833395</v>
+        <v>-716458.1757588306</v>
       </c>
       <c r="F6" t="n">
-        <v>54629.25354741143</v>
+        <v>54594.51562197588</v>
       </c>
       <c r="G6" t="n">
-        <v>54629.2535474114</v>
+        <v>54594.51562197553</v>
       </c>
       <c r="H6" t="n">
-        <v>54629.25354741137</v>
+        <v>54594.51562197588</v>
       </c>
       <c r="I6" t="n">
-        <v>54629.25354741143</v>
+        <v>54594.51562197568</v>
       </c>
       <c r="J6" t="n">
-        <v>-121793.9656451816</v>
+        <v>-121828.7035706173</v>
       </c>
       <c r="K6" t="n">
-        <v>54629.25354741131</v>
+        <v>54594.51562197565</v>
       </c>
       <c r="L6" t="n">
-        <v>27948.12429553329</v>
+        <v>27948.12429553343</v>
       </c>
       <c r="M6" t="n">
-        <v>-76832.66841889331</v>
+        <v>-76832.66841889312</v>
       </c>
       <c r="N6" t="n">
-        <v>47375.84228916513</v>
+        <v>47375.8422891651</v>
       </c>
       <c r="O6" t="n">
-        <v>47375.84228916504</v>
+        <v>47375.84228916519</v>
       </c>
       <c r="P6" t="n">
-        <v>47375.84228916513</v>
+        <v>47375.84228916516</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.743664217087</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.732436120978</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5.897504706808832e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5.897504706808832e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.42688102492474</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>13.49949093143735</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.54409714222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>40.87766751410201</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>139.5244652754162</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.225126175777</v>
+        <v>29.27795394731231</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>164.7681002257972</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>104.6961933089044</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.79634567315949</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>104.3555583235118</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.127120874283635e-11</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-5.752280774888328e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>556.7959610899857</v>
       </c>
       <c r="O21" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,10 +32783,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359099</v>
+        <v>473.8581708471796</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460043</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>186.6878763515707</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>146.8935783352061</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>485.7189625742317</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36130,7 +36130,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="O21" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525766</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>44.0916319071262</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
